--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f406_bc_Tong_hop_bill_theo_phong_ban.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f406_bc_Tong_hop_bill_theo_phong_ban.xlsx
@@ -43,7 +43,7 @@
     <t>Từ ngày  &lt;tu_ngay&gt;             Đến ngày &lt;den_ngay&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                Trạng thái:    &lt;trang_thai&gt;</t>
+    <t xml:space="preserve">            </t>
   </si>
 </sst>
 </file>
@@ -151,6 +151,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -166,10 +170,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
     <col min="1" max="1" width="9.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="37.140625" style="7" customWidth="1"/>
@@ -498,37 +498,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -540,7 +540,7 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">

--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f406_bc_Tong_hop_bill_theo_phong_ban.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f406_bc_Tong_hop_bill_theo_phong_ban.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -37,20 +37,32 @@
     <t>Tổng tiền thanh toán (VNĐ)</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG  HỢP BIL THEO PHÒNG BAN</t>
-  </si>
-  <si>
-    <t>Từ ngày  &lt;tu_ngay&gt;             Đến ngày &lt;den_ngay&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>Người lập</t>
+  </si>
+  <si>
+    <t>&lt;NGUOI_LAP&gt;</t>
+  </si>
+  <si>
+    <t>Phụ trách đơn vị</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày &lt;ngay&gt; tháng &lt;thang&gt; năm &lt;nam&gt;</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TỔNG HỢP TIỀN CHUYỂN PHÁT NHANH THÁNG &lt;THANG_TONG_HOP&gt;</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +94,27 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF8A001A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -100,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -128,11 +161,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -155,13 +203,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -170,6 +218,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -498,66 +568,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="27">
+        <f>SUM(E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="27">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="G8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
